--- a/Assignment2-fixed/TestCase-Assignment2-QuynhAnh-Notes.xlsx
+++ b/Assignment2-fixed/TestCase-Assignment2-QuynhAnh-Notes.xlsx
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="465">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2081,6 +2081,12 @@
   </si>
   <si>
     <t>Có thể input và phải input correct value in the dropdown list</t>
+  </si>
+  <si>
+    <t>Nếu function là cả 1 flow trên cả FE và BE thì phải verify ở cả BE để confirm that function works</t>
+  </si>
+  <si>
+    <t>Expected result phải nêu rõ là nó thành công như thế nào (vd: khi chuyển page thì đến dc page đấy và data của page được hiển thị tương ứng)</t>
   </si>
 </sst>
 </file>
@@ -3813,6 +3819,21 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3834,19 +3855,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3855,9 +3903,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3870,52 +3915,13 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5735,8 +5741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5751,10 +5757,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="209"/>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="A1" s="200"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -5763,13 +5769,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="205"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="210"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -5778,9 +5784,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="205"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="210"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -5791,11 +5797,11 @@
       <c r="A4" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -5809,11 +5815,11 @@
       <c r="A5" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="202" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -5827,11 +5833,11 @@
       <c r="A6" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="202" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -5842,11 +5848,11 @@
       <c r="A7" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="203" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -5858,9 +5864,9 @@
       <c r="A8" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -6003,11 +6009,11 @@
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
       <c r="E16" s="55"/>
-      <c r="F16" s="200" t="s">
+      <c r="F16" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -6041,11 +6047,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="206" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="202"/>
-      <c r="D18" s="203"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="208"/>
       <c r="E18" s="62"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63"/>
@@ -6054,11 +6060,11 @@
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="62"/>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="206" t="s">
         <v>201</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="203"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="208"/>
       <c r="E19" s="62"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63"/>
@@ -6240,13 +6246,15 @@
       <c r="D28" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="53"/>
+      <c r="E28" s="53" t="s">
+        <v>463</v>
+      </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
       <c r="I28" s="59"/>
     </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="51">
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="63.75">
       <c r="A29" s="57">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
@@ -6260,7 +6268,9 @@
       <c r="D29" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="E29" s="53"/>
+      <c r="E29" s="53" t="s">
+        <v>464</v>
+      </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
       <c r="H29" s="51"/>
@@ -7818,11 +7828,11 @@
     </row>
     <row r="110" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A110" s="72"/>
-      <c r="B110" s="204" t="s">
+      <c r="B110" s="209" t="s">
         <v>235</v>
       </c>
-      <c r="C110" s="202"/>
-      <c r="D110" s="203"/>
+      <c r="C110" s="207"/>
+      <c r="D110" s="208"/>
       <c r="E110" s="64"/>
       <c r="F110" s="61"/>
       <c r="G110" s="61"/>
@@ -7843,8 +7853,7 @@
     </row>
     <row r="112" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A112" s="60">
-        <f t="shared" ref="A112:A117" ca="1" si="2">IF(OFFSET(A112,-1,0) ="",OFFSET(A112,-2,0)+1,OFFSET(A112,-1,0)+1 )</f>
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B112" s="51" t="s">
         <v>272</v>
@@ -7863,8 +7872,8 @@
     </row>
     <row r="113" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A113" s="60">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ref="A112:A117" ca="1" si="2">IF(OFFSET(A113,-1,0) ="",OFFSET(A113,-2,0)+1,OFFSET(A113,-1,0)+1 )</f>
+        <v>85</v>
       </c>
       <c r="B113" s="51" t="s">
         <v>273</v>
@@ -7884,7 +7893,7 @@
     <row r="114" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A114" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B114" s="51" t="s">
         <v>439</v>
@@ -7904,7 +7913,7 @@
     <row r="115" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A115" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B115" s="51" t="s">
         <v>274</v>
@@ -7924,7 +7933,7 @@
     <row r="116" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A116" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B116" s="51" t="s">
         <v>275</v>
@@ -7944,7 +7953,7 @@
     <row r="117" spans="1:9" s="48" customFormat="1" ht="51">
       <c r="A117" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B117" s="51" t="s">
         <v>276</v>
@@ -7976,7 +7985,7 @@
     <row r="119" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A119" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B119" s="51" t="s">
         <v>239</v>
@@ -8008,7 +8017,7 @@
     <row r="121" spans="1:9" s="48" customFormat="1" ht="42" customHeight="1">
       <c r="A121" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B121" s="51" t="s">
         <v>242</v>
@@ -8040,7 +8049,7 @@
     <row r="123" spans="1:9" s="48" customFormat="1" ht="38.25">
       <c r="A123" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B123" s="51" t="s">
         <v>243</v>
@@ -8072,7 +8081,7 @@
     <row r="125" spans="1:9" s="48" customFormat="1" ht="63.75">
       <c r="A125" s="60">
         <f t="shared" ref="A125" ca="1" si="3">IF(OFFSET(A125,-1,0) ="",OFFSET(A125,-2,0)+1,OFFSET(A125,-1,0)+1 )</f>
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B125" s="51" t="s">
         <v>283</v>
@@ -8092,7 +8101,7 @@
     <row r="126" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A126" s="60">
         <f t="shared" ref="A126:A132" ca="1" si="4">IF(OFFSET(A126,-1,0) ="",OFFSET(A126,-2,0)+1,OFFSET(A126,-1,0)+1 )</f>
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B126" s="51"/>
       <c r="C126" s="51"/>
@@ -8106,7 +8115,7 @@
     <row r="127" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A127" s="60">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B127" s="51"/>
       <c r="C127" s="51"/>
@@ -8120,7 +8129,7 @@
     <row r="128" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A128" s="60">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B128" s="51"/>
       <c r="C128" s="51"/>
@@ -8134,7 +8143,7 @@
     <row r="129" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A129" s="60">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B129" s="51"/>
       <c r="C129" s="51"/>
@@ -8148,7 +8157,7 @@
     <row r="130" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A130" s="60">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B130" s="51"/>
       <c r="C130" s="51"/>
@@ -8162,7 +8171,7 @@
     <row r="131" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A131" s="60">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B131" s="51"/>
       <c r="C131" s="51"/>
@@ -8176,7 +8185,7 @@
     <row r="132" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A132" s="60">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
@@ -8189,11 +8198,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B110:D110"/>
@@ -8202,6 +8206,11 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -8258,13 +8267,13 @@
     </row>
     <row r="2" spans="1:12" s="79" customFormat="1" ht="26.25">
       <c r="A2" s="78"/>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="214" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
       <c r="H2" s="80" t="s">
         <v>115</v>
       </c>
@@ -8275,15 +8284,15 @@
     </row>
     <row r="3" spans="1:12" s="79" customFormat="1" ht="23.25">
       <c r="A3" s="78"/>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="215" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="231"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="151"/>
-      <c r="F3" s="232" t="s">
+      <c r="F3" s="216" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="232"/>
+      <c r="G3" s="216"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
       <c r="J3" s="82"/>
@@ -8308,10 +8317,10 @@
       <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="217" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="214"/>
+      <c r="C6" s="217"/>
       <c r="D6" s="89"/>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -8480,11 +8489,11 @@
       <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="214" t="s">
+      <c r="B14" s="217" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
       <c r="G14" s="90"/>
@@ -8660,11 +8669,11 @@
       <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="214" t="s">
+      <c r="B23" s="217" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
       <c r="G23" s="90"/>
@@ -8710,10 +8719,10 @@
       <c r="F26" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="233" t="s">
+      <c r="G26" s="218" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="234"/>
+      <c r="H26" s="219"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="95">
@@ -8738,8 +8747,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="225"/>
-      <c r="H27" s="226"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="213"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="95">
@@ -8764,8 +8773,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="225"/>
-      <c r="H28" s="226"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="213"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="95">
@@ -8790,8 +8799,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="225"/>
-      <c r="H29" s="226"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="213"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="95">
@@ -8816,8 +8825,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="225"/>
-      <c r="H30" s="226"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="213"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="95"/>
@@ -8838,8 +8847,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="225"/>
-      <c r="H31" s="226"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="213"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="101"/>
@@ -8877,7 +8886,7 @@
       <c r="E34" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="219" t="s">
+      <c r="F34" s="220" t="s">
         <v>127</v>
       </c>
       <c r="G34" s="221"/>
@@ -8896,8 +8905,8 @@
       <c r="E35" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="228"/>
-      <c r="G35" s="229"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="224"/>
       <c r="H35" s="119"/>
       <c r="I35" s="119"/>
       <c r="J35" s="119"/>
@@ -8920,8 +8929,8 @@
       <c r="E36" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="225"/>
-      <c r="G36" s="226"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="213"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="95">
@@ -8939,8 +8948,8 @@
       <c r="E37" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="225"/>
-      <c r="G37" s="226"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="213"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="101"/>
@@ -8953,10 +8962,10 @@
       <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="214" t="s">
+      <c r="B39" s="217" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="214"/>
+      <c r="C39" s="217"/>
       <c r="D39" s="89"/>
       <c r="E39" s="89"/>
       <c r="F39" s="89"/>
@@ -8980,15 +8989,15 @@
       <c r="B41" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="227" t="s">
+      <c r="C41" s="222" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="227"/>
-      <c r="E41" s="227" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="227"/>
-      <c r="G41" s="227"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
       <c r="H41" s="94" t="s">
         <v>183</v>
       </c>
@@ -9000,15 +9009,15 @@
       <c r="B42" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="224" t="s">
+      <c r="C42" s="225" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224" t="s">
+      <c r="D42" s="225"/>
+      <c r="E42" s="225" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="224"/>
-      <c r="G42" s="224"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -9018,15 +9027,15 @@
       <c r="B43" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="224" t="s">
+      <c r="C43" s="225" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224" t="s">
+      <c r="D43" s="225"/>
+      <c r="E43" s="225" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="224"/>
-      <c r="G43" s="224"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="225"/>
       <c r="H43" s="104"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -9036,15 +9045,15 @@
       <c r="B44" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="224" t="s">
+      <c r="C44" s="225" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="224"/>
-      <c r="E44" s="224" t="s">
+      <c r="D44" s="225"/>
+      <c r="E44" s="225" t="s">
         <v>186</v>
       </c>
-      <c r="F44" s="224"/>
-      <c r="G44" s="224"/>
+      <c r="F44" s="225"/>
+      <c r="G44" s="225"/>
       <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:12">
@@ -9056,10 +9065,10 @@
       <c r="G45" s="93"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="214" t="s">
+      <c r="B46" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="214"/>
+      <c r="C46" s="217"/>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
       <c r="F46" s="89"/>
@@ -9077,25 +9086,25 @@
       <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:12" s="108" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="215" t="s">
+      <c r="A48" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="217" t="s">
+      <c r="B48" s="230" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="219" t="s">
+      <c r="C48" s="220" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="220"/>
-      <c r="E48" s="220"/>
+      <c r="D48" s="232"/>
+      <c r="E48" s="232"/>
       <c r="F48" s="221"/>
-      <c r="G48" s="222" t="s">
+      <c r="G48" s="233" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="222" t="s">
+      <c r="H48" s="233" t="s">
         <v>189</v>
       </c>
-      <c r="I48" s="212" t="s">
+      <c r="I48" s="226" t="s">
         <v>191</v>
       </c>
       <c r="J48" s="107"/>
@@ -9103,8 +9112,8 @@
       <c r="L48" s="107"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="216"/>
-      <c r="B49" s="218"/>
+      <c r="A49" s="229"/>
+      <c r="B49" s="231"/>
       <c r="C49" s="109" t="s">
         <v>166</v>
       </c>
@@ -9117,13 +9126,13 @@
       <c r="F49" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="223"/>
-      <c r="H49" s="223"/>
-      <c r="I49" s="213"/>
+      <c r="G49" s="234"/>
+      <c r="H49" s="234"/>
+      <c r="I49" s="227"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="216"/>
-      <c r="B50" s="218"/>
+      <c r="A50" s="229"/>
+      <c r="B50" s="231"/>
       <c r="C50" s="123" t="s">
         <v>192</v>
       </c>
@@ -9235,6 +9244,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -9247,26 +9276,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -9313,6 +9322,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -9477,12 +9492,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
@@ -9492,6 +9501,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9508,21 +9534,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>